--- a/think tank/fundamentals/v1.1/annual-earnings-demo.xlsx
+++ b/think tank/fundamentals/v1.1/annual-earnings-demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="38400" windowHeight="16800"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="38400" windowHeight="16800"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
